--- a/doc/ue_parallel.xlsx
+++ b/doc/ue_parallel.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F53E1-B966-474B-B4C9-3671268C73F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="原理" sheetId="2" r:id="rId1"/>
+    <sheet name="代码" sheetId="1" r:id="rId2"/>
+    <sheet name="TaskGraph线程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="90">
   <si>
     <t>ParallelFor</t>
   </si>
@@ -122,13 +125,205 @@
   </si>
   <si>
     <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就是将任务分为多个Batch，然后交给TaskGraph线程池来执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4中的Parallel执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE5中进行了优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其内部实现的Task，是先投递到一个TaskGraph线程上，在继续由这个线程投递新的Task到后续的TaskGraph。这样子没有办法确保所有TaskGraph并行执行，肯定有先后顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>FTaskThreadAnyThread</t>
+  </si>
+  <si>
+    <t>A class for managing a worker threads.</t>
+  </si>
+  <si>
+    <t>**/</t>
+  </si>
+  <si>
+    <t>class FTaskThreadAnyThread : public FTaskThreadBase</t>
+  </si>
+  <si>
+    <t>Process tasks until idle. May block if bAllowStall is true</t>
+  </si>
+  <si>
+    <t>@param QueueIndex, Queue to process tasks from</t>
+  </si>
+  <si>
+    <t>@param bAllowStall,  if true, the thread will block on the stall event when it runs out of tasks.</t>
+  </si>
+  <si>
+    <t>uint64 ProcessTasks()</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(ELLMTag::TaskGraphTasksMisc);</t>
+  </si>
+  <si>
+    <t>TStatId StallStatId;</t>
+  </si>
+  <si>
+    <t>bool bCountAsStall = true;</t>
+  </si>
+  <si>
+    <t>uint64 ProcessedTasks = 0;</t>
+  </si>
+  <si>
+    <t>#if STATS</t>
+  </si>
+  <si>
+    <t>TStatId StatName;</t>
+  </si>
+  <si>
+    <t>FCycleCounter ProcessingTasks;</t>
+  </si>
+  <si>
+    <t>StatName = GET_STATID(STAT_TaskGraph_OtherTasks);</t>
+  </si>
+  <si>
+    <t>StallStatId = GET_STATID(STAT_TaskGraph_OtherStalls);</t>
+  </si>
+  <si>
+    <t>bool bTasksOpen = false;</t>
+  </si>
+  <si>
+    <t>if (FThreadStats::IsCollectingData(StatName))</t>
+  </si>
+  <si>
+    <t>bTasksOpen = true;</t>
+  </si>
+  <si>
+    <t>ProcessingTasks.Start(StatName);</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>verify(++Queue.RecursionGuard == 1);</t>
+  </si>
+  <si>
+    <t>bool bDidStall = false;</t>
+  </si>
+  <si>
+    <t>while (1)</t>
+  </si>
+  <si>
+    <t>FBaseGraphTask* Task = FindWork();</t>
+  </si>
+  <si>
+    <t>if (!Task)</t>
+  </si>
+  <si>
+    <t>if (bTasksOpen)</t>
+  </si>
+  <si>
+    <t>ProcessingTasks.Stop();</t>
+  </si>
+  <si>
+    <t>bTasksOpen = false;</t>
+  </si>
+  <si>
+    <t>TestRandomizedThreads();</t>
+  </si>
+  <si>
+    <t>const bool bIsMultithread = FTaskGraphInterface::IsMultithread();</t>
+  </si>
+  <si>
+    <t>if (bIsMultithread)</t>
+  </si>
+  <si>
+    <t>FScopeCycleCounter Scope(StallStatId);</t>
+  </si>
+  <si>
+    <t>Queue.StallRestartEvent-&gt;Wait(MAX_uint32, bCountAsStall);</t>
+  </si>
+  <si>
+    <t>bDidStall = true;</t>
+  </si>
+  <si>
+    <t>if (Queue.QuitForShutdown || !bIsMultithread)</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>#if YIELD_BETWEEN_TASKS</t>
+  </si>
+  <si>
+    <t>// the Win scheduler is ill behaved and will sometimes let BG tasks run even when other tasks are ready....kick the scheduler between tasks</t>
+  </si>
+  <si>
+    <t>if (!bDidStall &amp;&amp; PriorityIndex == (ENamedThreads::BackgroundThreadPriority &gt;&gt; ENamedThreads::ThreadPriorityShift))</t>
+  </si>
+  <si>
+    <t>FPlatformProcess::Sleep(0);</t>
+  </si>
+  <si>
+    <t>bDidStall = false;</t>
+  </si>
+  <si>
+    <t>Task-&gt;Execute(NewTasks, ENamedThreads::Type(ThreadId));</t>
+  </si>
+  <si>
+    <t>ProcessedTasks++;</t>
+  </si>
+  <si>
+    <t>if (Queue.bStallForTuning)</t>
+  </si>
+  <si>
+    <t>FScopeLock Lock(&amp;Queue.StallForTuning);</t>
+  </si>
+  <si>
+    <t>verify(!--Queue.RecursionGuard);</t>
+  </si>
+  <si>
+    <t>return ProcessedTasks;</t>
+  </si>
+  <si>
+    <t>该线程运行后就一直在执行ProcessTasks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有找到可执行的Task，则就一直等待，先等待Event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测：这个Event有一定延迟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！有新的Task了，则执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,11 +662,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140496F7-03A0-41C2-9151-1782446A5FFC}">
+  <dimension ref="B5:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -679,4 +919,547 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA95A3CD-2D51-4110-BDEF-B215788AE309}">
+  <dimension ref="B3:P106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="O87" sqref="O87"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="H58" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="H65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="H66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>80</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H99" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>